--- a/data/Case.xlsx
+++ b/data/Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxi/PycharmProjects/gx-interface/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E00BFB-87F7-DA4E-AC8F-C120D0257C7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ECFAD4-DC4E-364C-B26E-04AE5F9071B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{8B2DD1EF-A30E-DB49-B0E0-60079CBD05CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,26 @@
   </si>
   <si>
     <t>except</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.86:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qc-engine/v3/sysusers/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userName": "admin", "password": "123"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,6 +94,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -97,18 +126,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,15 +456,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6A1AFA-96C0-674C-9A2C-1BD4205C3AE7}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,10 +491,39 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{167E5A34-14FA-464B-969B-B8E513DCD544}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Case.xlsx
+++ b/data/Case.xlsx
@@ -1,56 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxi/PycharmProjects/gx-interface/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ECFAD4-DC4E-364C-B26E-04AE5F9071B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0BDBAC-DAA1-F040-81B4-B306D5907008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{8B2DD1EF-A30E-DB49-B0E0-60079CBD05CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="sysusers" sheetId="2" r:id="rId2"/>
+    <sheet name="delete" sheetId="3" r:id="rId3"/>
+    <sheet name="pwd" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>响应提取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库断言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录接口测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qc-engine/v3/sysusers/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>host</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>statue_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,11 +84,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"Content-Type":"application/json"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userName":"admin","password":"123"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qc-engine/v3/sysusers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://192.168.1.86:80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qc-engine/v3/sysusers/login</t>
+    <t>用户名为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,11 +108,668 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"userName": "admin", "password": "123"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>msg</t>
+    <t>{"userName":"","password":"123"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userName":"","password":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少用户名</t>
+  </si>
+  <si>
+    <t>用户名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userName":"ad","password":"123"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userName":"admin","password":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的用户名或密码</t>
+  </si>
+  <si>
+    <t>新增用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"userName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TestL4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"createBy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"deptId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"realName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>布鲁斯四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json;charset=UTF-8"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增已存在用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名已存在</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"key": "TestL4"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestL4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qc-engine/v3/sysusers/deletes/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qc-engine/v3/sysusers/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"type":"","userName":"TestL4","password":"","createBy":"1","deptId":"159","realName":"布鲁斯四十一一样"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"userName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TestL4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"userName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TestL4"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"123"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"createBy"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"deptId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"realName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>布鲁斯四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qc-engine/v3/sysusers/pwd/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,30 +777,73 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="10">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCC7832"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6897BB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,18 +864,18 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -147,7 +884,7 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -170,44 +907,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -257,9 +994,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -315,214 +1052,766 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6A1AFA-96C0-674C-9A2C-1BD4205C3AE7}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="1" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.83203125" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="8" max="11" width="18.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
-      </c>
-      <c r="H2">
-        <v>200</v>
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{167E5A34-14FA-464B-969B-B8E513DCD544}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="13" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="G9" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="13" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD149CB-754A-DD4A-82CB-4A0E07E99F3A}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1"/>
+    <row r="4" spans="1:13" ht="16" customHeight="1"/>
+    <row r="5" spans="1:13" ht="16" customHeight="1"/>
+    <row r="6" spans="1:13" ht="16" customHeight="1"/>
+    <row r="7" spans="1:13" ht="16" customHeight="1"/>
+    <row r="8" spans="1:13" ht="16" customHeight="1"/>
+    <row r="9" spans="1:13" ht="16" customHeight="1"/>
+    <row r="10" spans="1:13" ht="16" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F40F7A10-A478-1D4E-9DCD-DF602A0C8A1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
